--- a/biology/Zoologie/Animal_aquatique/Animal_aquatique.xlsx
+++ b/biology/Zoologie/Animal_aquatique/Animal_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un animal aquatique est un animal, soit vertébré soit invertébré, qui vit dans l'eau (douce ou saumâtre) pendant la plus grande partie ou l'ensemble de sa vie. 
 De nombreux animaux aquatiques font l'objet de mesure de protection du fait de la fragilité de leur milieu (pollution) ou de prélèvements passés intenses (surpêche).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
